--- a/CODA_API一覧.xlsx
+++ b/CODA_API一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D65D92C3-7947-3541-9164-2BB5409F65B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB90A54-6E15-A343-B0E6-BD7E3B42CCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32000" yWindow="4460" windowWidth="31720" windowHeight="15380" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="-32580" yWindow="3400" windowWidth="31720" windowHeight="15380" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="API一覧(CODA管理)" sheetId="1" r:id="rId1"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>/user_accounts/delete</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザーアカウントを削除する</t>
     <rPh sb="0" eb="4">
       <t>ユーザーアカウントヲ</t>
@@ -366,6 +362,10 @@
     <rPh sb="0" eb="4">
       <t>ロンリ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>/user_accounts/delete/{user_account_id}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -449,7 +449,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -464,9 +464,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,14 +781,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B311B770-0CBB-714E-AE4F-85B9602A9323}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="28.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1"/>
     <col min="6" max="6" width="13.140625" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" customWidth="1"/>
     <col min="8" max="8" width="27.28515625" customWidth="1"/>
@@ -828,7 +827,7 @@
         <v>15</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -844,19 +843,19 @@
       <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="3"/>
@@ -872,30 +871,30 @@
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>37</v>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
@@ -907,16 +906,16 @@
         <v>19</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>21</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>17</v>
@@ -925,96 +924,96 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="5" t="s">
+      <c r="H5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>33</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="J5" s="3"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5" t="s">
+      <c r="C6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>38</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="I6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="3" t="s">
         <v>41</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>46</v>
+      <c r="C7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>47</v>
+      <c r="G7" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/CODA_API一覧.xlsx
+++ b/CODA_API一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB90A54-6E15-A343-B0E6-BD7E3B42CCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830D99EE-55B8-B046-97AE-2D0ABC9D263C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-32580" yWindow="3400" windowWidth="31720" windowHeight="15380" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
+    <workbookView xWindow="-31840" yWindow="6020" windowWidth="31720" windowHeight="15380" xr2:uid="{559C992E-6E4A-0D46-BDB3-6EB8904BAF6D}"/>
   </bookViews>
   <sheets>
     <sheet name="API一覧(CODA管理)" sheetId="1" r:id="rId1"/>
@@ -781,9 +781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B311B770-0CBB-714E-AE4F-85B9602A9323}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
